--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1027873.251232214</v>
+        <v>1023716.760747159</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6507879.333115954</v>
+        <v>6507879.333115956</v>
       </c>
     </row>
     <row r="9">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>25.94442284487231</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>358.3814602371666</v>
       </c>
       <c r="G11" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.57840542799911</v>
+        <v>43.5784054279991</v>
       </c>
       <c r="T12" t="n">
         <v>124.7012168429747</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>55.04758110245329</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1536,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.066849283703</v>
@@ -1548,7 +1548,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I13" t="n">
-        <v>37.45777169608436</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>142.5131431297577</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>388.437927245445</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4751836067882</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>370.2154523914913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.57840542799911</v>
+        <v>43.5784054279991</v>
       </c>
       <c r="T15" t="n">
         <v>124.7012168429747</v>
@@ -1773,13 +1773,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>96.58974534533077</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.066849283703</v>
+        <v>126.5684404524971</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.7097330287659</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>254.2078574543722</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H17" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T17" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>210.7712748896465</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.57840542799911</v>
+        <v>43.5784054279991</v>
       </c>
       <c r="T18" t="n">
         <v>124.7012168429747</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>130.781282966242</v>
+        <v>122.7272296112195</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U19" t="n">
-        <v>37.45777169608437</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>122.028188803724</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>184.1823525554942</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>43.57840542799911</v>
+        <v>43.5784054279991</v>
       </c>
       <c r="T21" t="n">
         <v>124.7012168429747</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>154.891391724346</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.5131431297577</v>
+        <v>106.1208185409154</v>
       </c>
       <c r="T22" t="n">
         <v>239.7097330287659</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>244.1062108091562</v>
       </c>
       <c r="C23" t="n">
-        <v>168.7317478818379</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>122.7272296112195</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>160.1476444073896</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.7097330287659</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>217.3604862334509</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>3.274275243522572</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T26" t="n">
         <v>209.3908366544989</v>
@@ -2614,10 +2614,10 @@
         <v>256.4751836067882</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>167.775615474652</v>
       </c>
       <c r="D28" t="n">
-        <v>160.1476444073905</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.066849283703</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.7097330287659</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>288.8748108613468</v>
+        <v>50.12902103631967</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>209.3908366544989</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>5.895306142766786</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.04246476331899</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T31" t="n">
         <v>239.7097330287659</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.828090681053</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,13 +3037,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>258.5921694159613</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>90.294588408607</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T34" t="n">
         <v>239.7097330287659</v>
       </c>
       <c r="U34" t="n">
-        <v>234.1093140470222</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>406.29153639771</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H35" t="n">
-        <v>112.6345281636165</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T35" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3429,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>127.7208040392866</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>133.4480002385874</v>
       </c>
       <c r="G37" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>398.7219276894275</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T38" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U38" t="n">
-        <v>125.5237807991873</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>61.07243267748276</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>138.5476589090199</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>61.65479693373585</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.7097330287659</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>84.93567404286829</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>64.36154951185377</v>
       </c>
     </row>
     <row r="42">
@@ -3906,10 +3906,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>138.4415746666554</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.066849283703</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T43" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6012973062951</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>56.12843440132909</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>249.4654584063274</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>71.52624438527059</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>122.7272296112195</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>133.4480002385883</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.917291928724</v>
+        <v>1718.545249241769</v>
       </c>
       <c r="C11" t="n">
-        <v>1745.71080420663</v>
+        <v>1280.402776425192</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.801019381075</v>
+        <v>844.4929915996368</v>
       </c>
       <c r="E11" t="n">
-        <v>876.02627453937</v>
+        <v>410.7182467579319</v>
       </c>
       <c r="F11" t="n">
-        <v>448.1588449485777</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G11" t="n">
         <v>48.71677177089499</v>
@@ -5038,55 +5038,55 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I11" t="n">
-        <v>122.2071970529794</v>
+        <v>122.2071970529798</v>
       </c>
       <c r="J11" t="n">
-        <v>284.8964781041978</v>
+        <v>284.8964781041983</v>
       </c>
       <c r="K11" t="n">
-        <v>528.7255375544863</v>
+        <v>528.7255375544869</v>
       </c>
       <c r="L11" t="n">
-        <v>831.2170466428694</v>
+        <v>831.2170466428701</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N11" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O11" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P11" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q11" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R11" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S11" t="n">
-        <v>2435.838588544749</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T11" t="n">
-        <v>2435.838588544749</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U11" t="n">
-        <v>2176.77274651769</v>
+        <v>2137.687712662458</v>
       </c>
       <c r="V11" t="n">
-        <v>2176.77274651769</v>
+        <v>2137.687712662458</v>
       </c>
       <c r="W11" t="n">
-        <v>1771.917291928724</v>
+        <v>2137.687712662458</v>
       </c>
       <c r="X11" t="n">
-        <v>1771.917291928724</v>
+        <v>1718.545249241769</v>
       </c>
       <c r="Y11" t="n">
-        <v>1771.917291928724</v>
+        <v>1718.545249241769</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G12" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H12" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I12" t="n">
-        <v>84.0279679502036</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J12" t="n">
-        <v>180.9245892111574</v>
+        <v>127.7240328152223</v>
       </c>
       <c r="K12" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L12" t="n">
-        <v>569.2217964201101</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M12" t="n">
-        <v>775.8846544545777</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N12" t="n">
         <v>1042.62588021723</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1068.273962101966</v>
+        <v>683.972771288112</v>
       </c>
       <c r="C13" t="n">
-        <v>895.7122505851913</v>
+        <v>511.4110597713369</v>
       </c>
       <c r="D13" t="n">
-        <v>729.834257786714</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="E13" t="n">
-        <v>560.0762540374512</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="F13" t="n">
-        <v>383.3691999992075</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="G13" t="n">
-        <v>218.6552108237499</v>
+        <v>180.819077797402</v>
       </c>
       <c r="H13" t="n">
-        <v>86.55290479724283</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I13" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5065980312421</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K13" t="n">
-        <v>209.4029564737309</v>
+        <v>570.7410962095564</v>
       </c>
       <c r="L13" t="n">
-        <v>476.6585936536287</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M13" t="n">
-        <v>611.4405113863231</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N13" t="n">
-        <v>1185.276419525377</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O13" t="n">
         <v>1726.478421573054</v>
@@ -5223,28 +5223,28 @@
         <v>2418.169210152066</v>
       </c>
       <c r="R13" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S13" t="n">
-        <v>2291.885918716711</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.885918716711</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U13" t="n">
-        <v>2291.885918716711</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V13" t="n">
-        <v>2004.930410587141</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W13" t="n">
-        <v>1732.904006173433</v>
+        <v>1212.387813915797</v>
       </c>
       <c r="X13" t="n">
-        <v>1487.512251506845</v>
+        <v>966.9960592492091</v>
       </c>
       <c r="Y13" t="n">
-        <v>1260.092580820954</v>
+        <v>739.5763885633173</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1591.311848491438</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C14" t="n">
-        <v>1153.169375674861</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D14" t="n">
-        <v>717.2595908493054</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E14" t="n">
-        <v>717.2595908493054</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F14" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G14" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H14" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I14" t="n">
-        <v>122.2071970529794</v>
+        <v>122.2071970529798</v>
       </c>
       <c r="J14" t="n">
-        <v>284.8964781041979</v>
+        <v>284.8964781041983</v>
       </c>
       <c r="K14" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544869</v>
       </c>
       <c r="L14" t="n">
-        <v>831.2170466428693</v>
+        <v>831.2170466428701</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N14" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.78918131672</v>
+        <v>1832.789181316721</v>
       </c>
       <c r="P14" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q14" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R14" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.332692934144</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="U14" t="n">
-        <v>1965.266850907085</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="V14" t="n">
-        <v>1965.266850907085</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="W14" t="n">
-        <v>1965.266850907085</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="X14" t="n">
-        <v>1965.266850907085</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="Y14" t="n">
-        <v>1591.311848491438</v>
+        <v>2176.772746517691</v>
       </c>
     </row>
     <row r="15">
@@ -5348,25 +5348,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G15" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H15" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I15" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J15" t="n">
-        <v>127.7240328152226</v>
+        <v>127.7240328152223</v>
       </c>
       <c r="K15" t="n">
-        <v>293.3357920169558</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L15" t="n">
-        <v>516.0212400241753</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M15" t="n">
-        <v>775.8846544545777</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N15" t="n">
         <v>1042.62588021723</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>826.1429186385667</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C16" t="n">
-        <v>653.5812071217916</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D16" t="n">
-        <v>487.7032143233143</v>
+        <v>353.2707353571157</v>
       </c>
       <c r="E16" t="n">
-        <v>390.1378149845964</v>
+        <v>353.2707353571157</v>
       </c>
       <c r="F16" t="n">
-        <v>213.4307609463526</v>
+        <v>176.5636813188719</v>
       </c>
       <c r="G16" t="n">
         <v>48.71677177089499</v>
@@ -5436,19 +5436,19 @@
         <v>48.71677177089499</v>
       </c>
       <c r="J16" t="n">
-        <v>196.0862831959319</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K16" t="n">
-        <v>570.7410962095564</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L16" t="n">
-        <v>879.1027788561419</v>
+        <v>918.9173968112735</v>
       </c>
       <c r="M16" t="n">
-        <v>1473.368563769749</v>
+        <v>1053.699314543968</v>
       </c>
       <c r="N16" t="n">
-        <v>1604.945668751159</v>
+        <v>1185.276419525378</v>
       </c>
       <c r="O16" t="n">
         <v>1726.478421573054</v>
@@ -5460,28 +5460,28 @@
         <v>2418.169210152066</v>
       </c>
       <c r="R16" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S16" t="n">
-        <v>2291.885918716711</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.754875253311</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.754875253311</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V16" t="n">
-        <v>1762.799367123742</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W16" t="n">
-        <v>1490.772962710033</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X16" t="n">
-        <v>1245.381208043446</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.961537357554</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>974.0352044395803</v>
+        <v>2183.853277023207</v>
       </c>
       <c r="C17" t="n">
-        <v>974.0352044395803</v>
+        <v>1745.71080420663</v>
       </c>
       <c r="D17" t="n">
-        <v>974.0352044395803</v>
+        <v>1309.801019381075</v>
       </c>
       <c r="E17" t="n">
-        <v>974.0352044395803</v>
+        <v>876.02627453937</v>
       </c>
       <c r="F17" t="n">
-        <v>717.2595908493054</v>
+        <v>448.1588449485777</v>
       </c>
       <c r="G17" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H17" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I17" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529794</v>
       </c>
       <c r="J17" t="n">
         <v>284.8964781041978</v>
       </c>
       <c r="K17" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L17" t="n">
-        <v>831.2170466428693</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M17" t="n">
         <v>1167.797134377708</v>
@@ -5530,7 +5530,7 @@
         <v>1509.823439815744</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.78918131672</v>
+        <v>1832.789181316721</v>
       </c>
       <c r="P17" t="n">
         <v>2108.432969611294</v>
@@ -5539,28 +5539,28 @@
         <v>2315.429975153287</v>
       </c>
       <c r="R17" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S17" t="n">
-        <v>2435.838588544749</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.332692934144</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.332692934144</v>
+        <v>2183.853277023207</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.332692934144</v>
+        <v>2183.853277023207</v>
       </c>
       <c r="W17" t="n">
-        <v>1819.477238345178</v>
+        <v>2183.853277023207</v>
       </c>
       <c r="X17" t="n">
-        <v>1400.334774924488</v>
+        <v>2183.853277023207</v>
       </c>
       <c r="Y17" t="n">
-        <v>1400.334774924488</v>
+        <v>2183.853277023207</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>164.684848684769</v>
       </c>
       <c r="G18" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H18" t="n">
         <v>48.71677177089499</v>
@@ -5594,16 +5594,16 @@
         <v>48.71677177089499</v>
       </c>
       <c r="J18" t="n">
-        <v>127.7240328152226</v>
+        <v>145.6133930318488</v>
       </c>
       <c r="K18" t="n">
-        <v>293.3357920169558</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L18" t="n">
-        <v>516.0212400241753</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M18" t="n">
-        <v>775.8846544545777</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N18" t="n">
         <v>1042.62588021723</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1030.437829075619</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C19" t="n">
-        <v>857.8761175588435</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D19" t="n">
-        <v>691.9981247603662</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="E19" t="n">
-        <v>522.2401210111034</v>
+        <v>349.3907244063302</v>
       </c>
       <c r="F19" t="n">
-        <v>345.5330669728596</v>
+        <v>172.6836703680864</v>
       </c>
       <c r="G19" t="n">
-        <v>180.819077797402</v>
+        <v>172.6836703680864</v>
       </c>
       <c r="H19" t="n">
         <v>48.71677177089499</v>
@@ -5673,7 +5673,7 @@
         <v>48.71677177089499</v>
       </c>
       <c r="J19" t="n">
-        <v>196.0862831959319</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K19" t="n">
         <v>570.7410962095564</v>
@@ -5697,28 +5697,28 @@
         <v>2418.169210152066</v>
       </c>
       <c r="R19" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S19" t="n">
-        <v>2291.885918716711</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T19" t="n">
-        <v>2291.885918716711</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U19" t="n">
-        <v>2254.049785690363</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V19" t="n">
-        <v>1967.094277560793</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W19" t="n">
-        <v>1695.067873147085</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X19" t="n">
-        <v>1449.676118480498</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y19" t="n">
-        <v>1222.256447794606</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2176.77274651769</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C20" t="n">
-        <v>1738.630273701114</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D20" t="n">
-        <v>1302.720488875558</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E20" t="n">
-        <v>868.9457440338533</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F20" t="n">
-        <v>441.0783144430611</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G20" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H20" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I20" t="n">
-        <v>122.2071970529794</v>
+        <v>122.2071970529798</v>
       </c>
       <c r="J20" t="n">
-        <v>284.8964781041978</v>
+        <v>284.8964781041983</v>
       </c>
       <c r="K20" t="n">
-        <v>528.7255375544863</v>
+        <v>528.7255375544869</v>
       </c>
       <c r="L20" t="n">
-        <v>831.2170466428694</v>
+        <v>831.2170466428701</v>
       </c>
       <c r="M20" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N20" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O20" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P20" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q20" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R20" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S20" t="n">
-        <v>2435.838588544749</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T20" t="n">
-        <v>2435.838588544749</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U20" t="n">
-        <v>2176.77274651769</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V20" t="n">
-        <v>2176.77274651769</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W20" t="n">
-        <v>2176.77274651769</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X20" t="n">
-        <v>2176.77274651769</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="Y20" t="n">
-        <v>2176.77274651769</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G21" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H21" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I21" t="n">
-        <v>84.0279679502036</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J21" t="n">
         <v>180.9245892111574</v>
       </c>
       <c r="K21" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L21" t="n">
-        <v>516.0212400241753</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M21" t="n">
-        <v>775.8846544545777</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N21" t="n">
         <v>1042.62588021723</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>547.7577698443292</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="C22" t="n">
-        <v>547.7577698443292</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="D22" t="n">
-        <v>381.8797770458519</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="E22" t="n">
-        <v>381.8797770458519</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="F22" t="n">
-        <v>205.1727230076081</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G22" t="n">
-        <v>48.71677177089499</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H22" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I22" t="n">
         <v>48.71677177089499</v>
@@ -5934,28 +5934,28 @@
         <v>2418.169210152066</v>
       </c>
       <c r="R22" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S22" t="n">
-        <v>2291.885918716711</v>
+        <v>2328.645842543825</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.754875253311</v>
+        <v>2086.514799080425</v>
       </c>
       <c r="U22" t="n">
-        <v>1771.369726459074</v>
+        <v>1808.129650286187</v>
       </c>
       <c r="V22" t="n">
-        <v>1484.414218329504</v>
+        <v>1521.174142156618</v>
       </c>
       <c r="W22" t="n">
-        <v>1212.387813915796</v>
+        <v>1249.147737742909</v>
       </c>
       <c r="X22" t="n">
-        <v>966.9960592492082</v>
+        <v>1003.755983076322</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.5763885633164</v>
+        <v>776.3363123904298</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2185.247659078912</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C23" t="n">
-        <v>2014.811550107358</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D23" t="n">
-        <v>1578.901765281802</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E23" t="n">
-        <v>1145.127020440098</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F23" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G23" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H23" t="n">
         <v>48.71677177089499</v>
@@ -5989,13 +5989,13 @@
         <v>122.2071970529792</v>
       </c>
       <c r="J23" t="n">
-        <v>284.8964781041977</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K23" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L23" t="n">
-        <v>831.2170466428694</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M23" t="n">
         <v>1167.797134377708</v>
@@ -6004,7 +6004,7 @@
         <v>1509.823439815744</v>
       </c>
       <c r="O23" t="n">
-        <v>1832.78918131672</v>
+        <v>1832.789181316721</v>
       </c>
       <c r="P23" t="n">
         <v>2108.432969611294</v>
@@ -6013,28 +6013,28 @@
         <v>2315.429975153287</v>
       </c>
       <c r="R23" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S23" t="n">
-        <v>2396.753554689516</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T23" t="n">
-        <v>2185.247659078912</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="U23" t="n">
-        <v>2185.247659078912</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="V23" t="n">
-        <v>2185.247659078912</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="W23" t="n">
-        <v>2185.247659078912</v>
+        <v>2030.983133955783</v>
       </c>
       <c r="X23" t="n">
-        <v>2185.247659078912</v>
+        <v>2030.983133955783</v>
       </c>
       <c r="Y23" t="n">
-        <v>2185.247659078912</v>
+        <v>2030.983133955783</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>164.684848684769</v>
       </c>
       <c r="G24" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H24" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I24" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J24" t="n">
-        <v>145.6133930318487</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K24" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L24" t="n">
-        <v>516.0212400241753</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M24" t="n">
-        <v>775.8846544545777</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N24" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O24" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P24" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q24" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841992</v>
       </c>
       <c r="R24" t="n">
         <v>1677.080359849152</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>547.7577698443292</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C25" t="n">
-        <v>375.1960583275542</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D25" t="n">
-        <v>375.1960583275542</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E25" t="n">
-        <v>375.1960583275542</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F25" t="n">
-        <v>213.4307609463526</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G25" t="n">
         <v>48.71677177089499</v>
@@ -6147,7 +6147,7 @@
         <v>48.71677177089499</v>
       </c>
       <c r="J25" t="n">
-        <v>196.0862831959319</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K25" t="n">
         <v>570.7410962095564</v>
@@ -6171,28 +6171,28 @@
         <v>2418.169210152066</v>
       </c>
       <c r="R25" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S25" t="n">
-        <v>2291.885918716711</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T25" t="n">
-        <v>2049.754875253311</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U25" t="n">
-        <v>1771.369726459074</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V25" t="n">
-        <v>1484.414218329504</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W25" t="n">
-        <v>1212.387813915796</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X25" t="n">
-        <v>966.9960592492082</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.5763885633164</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1965.266850907086</v>
+        <v>1158.709412396713</v>
       </c>
       <c r="C26" t="n">
-        <v>1745.71080420663</v>
+        <v>720.5669395801362</v>
       </c>
       <c r="D26" t="n">
-        <v>1309.801019381075</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="E26" t="n">
-        <v>876.02627453937</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F26" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G26" t="n">
-        <v>48.71677177089499</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H26" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I26" t="n">
-        <v>122.2071970529801</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J26" t="n">
-        <v>284.8964781041986</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K26" t="n">
-        <v>528.7255375544871</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L26" t="n">
-        <v>831.2170466428703</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M26" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N26" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O26" t="n">
         <v>1832.789181316721</v>
@@ -6253,25 +6253,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S26" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.332692934145</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U26" t="n">
-        <v>1965.266850907086</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V26" t="n">
-        <v>1965.266850907086</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="W26" t="n">
-        <v>1965.266850907086</v>
+        <v>1158.709412396713</v>
       </c>
       <c r="X26" t="n">
-        <v>1965.266850907086</v>
+        <v>1158.709412396713</v>
       </c>
       <c r="Y26" t="n">
-        <v>1965.266850907086</v>
+        <v>1158.709412396713</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>84.02796795020362</v>
       </c>
       <c r="J27" t="n">
-        <v>127.7240328152225</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K27" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L27" t="n">
-        <v>516.0212400241753</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M27" t="n">
-        <v>775.8846544545777</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O27" t="n">
         <v>1286.641989661683</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>547.7577698443301</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1960583275551</v>
+        <v>522.2401210111034</v>
       </c>
       <c r="D28" t="n">
-        <v>213.4307609463526</v>
+        <v>522.2401210111034</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4307609463526</v>
+        <v>522.2401210111034</v>
       </c>
       <c r="F28" t="n">
-        <v>213.4307609463526</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="G28" t="n">
-        <v>48.71677177089499</v>
+        <v>180.819077797402</v>
       </c>
       <c r="H28" t="n">
         <v>48.71677177089499</v>
@@ -6384,7 +6384,7 @@
         <v>48.71677177089499</v>
       </c>
       <c r="J28" t="n">
-        <v>196.0862831959319</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K28" t="n">
         <v>570.7410962095564</v>
@@ -6411,25 +6411,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S28" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U28" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W28" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X28" t="n">
-        <v>966.9960592492091</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.5763885633173</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>486.8592445874717</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="C29" t="n">
-        <v>48.71677177089499</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D29" t="n">
-        <v>48.71677177089499</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E29" t="n">
-        <v>48.71677177089499</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F29" t="n">
         <v>48.71677177089499</v>
@@ -6460,19 +6460,19 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I29" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529801</v>
       </c>
       <c r="J29" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041986</v>
       </c>
       <c r="K29" t="n">
-        <v>528.7255375544866</v>
+        <v>528.7255375544871</v>
       </c>
       <c r="L29" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428703</v>
       </c>
       <c r="M29" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N29" t="n">
         <v>1509.823439815745</v>
@@ -6496,19 +6496,19 @@
         <v>2224.332692934145</v>
       </c>
       <c r="U29" t="n">
-        <v>1965.266850907086</v>
+        <v>2224.332692934145</v>
       </c>
       <c r="V29" t="n">
-        <v>1602.649900840912</v>
+        <v>2224.332692934145</v>
       </c>
       <c r="W29" t="n">
-        <v>1197.794446251946</v>
+        <v>2224.332692934145</v>
       </c>
       <c r="X29" t="n">
-        <v>778.6519828312563</v>
+        <v>1805.190229513456</v>
       </c>
       <c r="Y29" t="n">
-        <v>778.6519828312563</v>
+        <v>1396.904105813109</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>84.02796795020362</v>
       </c>
       <c r="J30" t="n">
-        <v>180.9245892111574</v>
+        <v>127.7240328152225</v>
       </c>
       <c r="K30" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169558</v>
       </c>
       <c r="L30" t="n">
-        <v>569.2217964201103</v>
+        <v>516.0212400241753</v>
       </c>
       <c r="M30" t="n">
-        <v>829.0852108505127</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O30" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P30" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q30" t="n">
-        <v>1666.603808841992</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R30" t="n">
         <v>1677.080359849152</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>898.3355230491115</v>
+        <v>733.6215338736539</v>
       </c>
       <c r="C31" t="n">
-        <v>725.7738115323365</v>
+        <v>561.0598223568788</v>
       </c>
       <c r="D31" t="n">
-        <v>559.8958187338592</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E31" t="n">
-        <v>390.1378149845964</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4307609463526</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G31" t="n">
         <v>48.71677177089499</v>
@@ -6648,25 +6648,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S31" t="n">
-        <v>2364.078523127256</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T31" t="n">
-        <v>2121.947479663856</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U31" t="n">
-        <v>2121.947479663856</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V31" t="n">
-        <v>1834.991971534286</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W31" t="n">
-        <v>1562.965567120578</v>
+        <v>1212.387813915797</v>
       </c>
       <c r="X31" t="n">
-        <v>1317.573812453991</v>
+        <v>966.9960592492091</v>
       </c>
       <c r="Y31" t="n">
-        <v>1090.154141768099</v>
+        <v>739.5763885633173</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1611.840670535094</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C32" t="n">
-        <v>1173.698197718517</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D32" t="n">
-        <v>737.7884128929613</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E32" t="n">
-        <v>737.7884128929613</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9209833021691</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="G32" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="H32" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="I32" t="n">
-        <v>122.2071970529798</v>
+        <v>122.2071970529787</v>
       </c>
       <c r="J32" t="n">
-        <v>284.8964781041983</v>
+        <v>284.8964781041972</v>
       </c>
       <c r="K32" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544858</v>
       </c>
       <c r="L32" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428689</v>
       </c>
       <c r="M32" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N32" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.789181316721</v>
+        <v>1832.78918131672</v>
       </c>
       <c r="P32" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611293</v>
       </c>
       <c r="Q32" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153286</v>
       </c>
       <c r="R32" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S32" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T32" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078911</v>
       </c>
       <c r="U32" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078911</v>
       </c>
       <c r="V32" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078911</v>
       </c>
       <c r="W32" t="n">
-        <v>2030.983133955783</v>
+        <v>2185.247659078911</v>
       </c>
       <c r="X32" t="n">
-        <v>1611.840670535094</v>
+        <v>2185.247659078911</v>
       </c>
       <c r="Y32" t="n">
-        <v>1611.840670535094</v>
+        <v>2185.247659078911</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G33" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H33" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="I33" t="n">
-        <v>48.71677177089499</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J33" t="n">
-        <v>145.6133930318488</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K33" t="n">
-        <v>293.3357920169556</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L33" t="n">
-        <v>516.0212400241751</v>
+        <v>516.0212400241753</v>
       </c>
       <c r="M33" t="n">
-        <v>775.8846544545776</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N33" t="n">
         <v>1042.62588021723</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.6215338736539</v>
+        <v>819.7841742580376</v>
       </c>
       <c r="C34" t="n">
-        <v>561.0598223568788</v>
+        <v>647.2224627412626</v>
       </c>
       <c r="D34" t="n">
-        <v>395.1818295584015</v>
+        <v>481.3444699427853</v>
       </c>
       <c r="E34" t="n">
-        <v>225.4238258091388</v>
+        <v>390.1378149845964</v>
       </c>
       <c r="F34" t="n">
-        <v>48.71677177089499</v>
+        <v>213.4307609463526</v>
       </c>
       <c r="G34" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="H34" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="I34" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="J34" t="n">
-        <v>196.086283195932</v>
+        <v>196.0862831959319</v>
       </c>
       <c r="K34" t="n">
         <v>570.7410962095564</v>
@@ -6867,43 +6867,43 @@
         <v>1116.78392367145</v>
       </c>
       <c r="M34" t="n">
-        <v>1251.565841404145</v>
+        <v>1473.368563769749</v>
       </c>
       <c r="N34" t="n">
-        <v>1383.142946385555</v>
+        <v>1604.945668751159</v>
       </c>
       <c r="O34" t="n">
-        <v>1726.478421573054</v>
+        <v>1726.478421573053</v>
       </c>
       <c r="P34" t="n">
         <v>2177.977581014356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152065</v>
       </c>
       <c r="R34" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S34" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T34" t="n">
-        <v>2193.70754508135</v>
+        <v>2049.754875253311</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.233490488398</v>
+        <v>1771.369726459074</v>
       </c>
       <c r="V34" t="n">
-        <v>1670.277982358829</v>
+        <v>1484.414218329504</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.25157794512</v>
+        <v>1484.414218329504</v>
       </c>
       <c r="X34" t="n">
-        <v>1152.859823278533</v>
+        <v>1239.022463662917</v>
       </c>
       <c r="Y34" t="n">
-        <v>925.440152592641</v>
+        <v>1011.602792977025</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1861.715742867971</v>
+        <v>1563.564866985679</v>
       </c>
       <c r="C35" t="n">
-        <v>1423.573270051395</v>
+        <v>1563.564866985679</v>
       </c>
       <c r="D35" t="n">
-        <v>1423.573270051395</v>
+        <v>1127.655082160124</v>
       </c>
       <c r="E35" t="n">
-        <v>989.7985252096896</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F35" t="n">
-        <v>561.9310956188974</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G35" t="n">
-        <v>162.4890224412147</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H35" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I35" t="n">
-        <v>122.2071970529798</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J35" t="n">
-        <v>284.8964781041983</v>
+        <v>284.8964781041976</v>
       </c>
       <c r="K35" t="n">
-        <v>528.7255375544869</v>
+        <v>528.725537554486</v>
       </c>
       <c r="L35" t="n">
-        <v>831.2170466428701</v>
+        <v>831.217046642869</v>
       </c>
       <c r="M35" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N35" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.789181316721</v>
+        <v>1832.78918131672</v>
       </c>
       <c r="P35" t="n">
         <v>2108.432969611294</v>
@@ -6961,28 +6961,28 @@
         <v>2315.429975153287</v>
       </c>
       <c r="R35" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S35" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.332692934145</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.332692934145</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V35" t="n">
-        <v>1861.715742867971</v>
+        <v>1563.564866985679</v>
       </c>
       <c r="W35" t="n">
-        <v>1861.715742867971</v>
+        <v>1563.564866985679</v>
       </c>
       <c r="X35" t="n">
-        <v>1861.715742867971</v>
+        <v>1563.564866985679</v>
       </c>
       <c r="Y35" t="n">
-        <v>1861.715742867971</v>
+        <v>1563.564866985679</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>164.684848684769</v>
       </c>
       <c r="G36" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H36" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I36" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J36" t="n">
-        <v>127.7240328152223</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K36" t="n">
-        <v>293.3357920169556</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L36" t="n">
-        <v>516.0212400241751</v>
+        <v>569.2217964201102</v>
       </c>
       <c r="M36" t="n">
-        <v>775.8846544545776</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N36" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O36" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P36" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727011</v>
       </c>
       <c r="Q36" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841992</v>
       </c>
       <c r="R36" t="n">
         <v>1677.080359849152</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>691.710439672368</v>
+        <v>691.7104396723671</v>
       </c>
       <c r="C37" t="n">
-        <v>519.1487281555929</v>
+        <v>519.148728155592</v>
       </c>
       <c r="D37" t="n">
-        <v>390.1378149845964</v>
+        <v>353.2707353571147</v>
       </c>
       <c r="E37" t="n">
-        <v>390.1378149845964</v>
+        <v>183.512731607852</v>
       </c>
       <c r="F37" t="n">
-        <v>213.4307609463526</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G37" t="n">
         <v>48.71677177089499</v>
@@ -7098,49 +7098,49 @@
         <v>196.086283195932</v>
       </c>
       <c r="K37" t="n">
-        <v>570.7410962095564</v>
+        <v>405.0414496134567</v>
       </c>
       <c r="L37" t="n">
-        <v>1116.78392367145</v>
+        <v>532.8743953073897</v>
       </c>
       <c r="M37" t="n">
-        <v>1251.565841404145</v>
+        <v>1127.140180220997</v>
       </c>
       <c r="N37" t="n">
-        <v>1383.142946385555</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O37" t="n">
-        <v>1726.478421573054</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P37" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q37" t="n">
         <v>2418.169210152066</v>
       </c>
       <c r="R37" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S37" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T37" t="n">
-        <v>2193.70754508135</v>
+        <v>2193.707545081349</v>
       </c>
       <c r="U37" t="n">
         <v>1915.322396287112</v>
       </c>
       <c r="V37" t="n">
-        <v>1628.366888157543</v>
+        <v>1628.366888157542</v>
       </c>
       <c r="W37" t="n">
-        <v>1356.340483743835</v>
+        <v>1356.340483743834</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.948729077247</v>
+        <v>1110.948729077246</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.5290583913552</v>
+        <v>883.5290583913543</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>484.6265565964505</v>
+        <v>1158.709412396712</v>
       </c>
       <c r="C38" t="n">
-        <v>484.6265565964505</v>
+        <v>720.5669395801353</v>
       </c>
       <c r="D38" t="n">
-        <v>48.71677177089499</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="E38" t="n">
-        <v>48.71677177089499</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="F38" t="n">
-        <v>48.71677177089499</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="G38" t="n">
-        <v>48.71677177089499</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H38" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="I38" t="n">
-        <v>122.2071970529798</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J38" t="n">
-        <v>284.8964781041983</v>
+        <v>284.8964781041976</v>
       </c>
       <c r="K38" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544862</v>
       </c>
       <c r="L38" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428694</v>
       </c>
       <c r="M38" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N38" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.789181316721</v>
+        <v>1832.78918131672</v>
       </c>
       <c r="P38" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611293</v>
       </c>
       <c r="Q38" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153286</v>
       </c>
       <c r="R38" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S38" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.332692934145</v>
+        <v>2185.247659078911</v>
       </c>
       <c r="U38" t="n">
-        <v>2097.540995157188</v>
+        <v>1926.181817051852</v>
       </c>
       <c r="V38" t="n">
-        <v>1734.924045091014</v>
+        <v>1563.564866985679</v>
       </c>
       <c r="W38" t="n">
-        <v>1330.068590502048</v>
+        <v>1158.709412396712</v>
       </c>
       <c r="X38" t="n">
-        <v>910.9261270813583</v>
+        <v>1158.709412396712</v>
       </c>
       <c r="Y38" t="n">
-        <v>910.9261270813583</v>
+        <v>1158.709412396712</v>
       </c>
     </row>
     <row r="39">
@@ -7244,13 +7244,13 @@
         <v>164.684848684769</v>
       </c>
       <c r="G39" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H39" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="I39" t="n">
-        <v>84.02796795020362</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J39" t="n">
         <v>180.9245892111574</v>
@@ -7259,10 +7259,10 @@
         <v>346.5363484128906</v>
       </c>
       <c r="L39" t="n">
-        <v>569.2217964201103</v>
+        <v>569.2217964201102</v>
       </c>
       <c r="M39" t="n">
-        <v>829.0852108505127</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N39" t="n">
         <v>1095.826436613165</v>
@@ -7271,7 +7271,7 @@
         <v>1339.842546057618</v>
       </c>
       <c r="P39" t="n">
-        <v>1535.686986727012</v>
+        <v>1535.686986727011</v>
       </c>
       <c r="Q39" t="n">
         <v>1666.603808841992</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>547.7577698443301</v>
+        <v>691.7104396723671</v>
       </c>
       <c r="C40" t="n">
-        <v>547.7577698443301</v>
+        <v>519.148728155592</v>
       </c>
       <c r="D40" t="n">
-        <v>547.7577698443301</v>
+        <v>457.4594022187408</v>
       </c>
       <c r="E40" t="n">
-        <v>547.7577698443301</v>
+        <v>287.701398469478</v>
       </c>
       <c r="F40" t="n">
-        <v>407.8106396331989</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="G40" t="n">
-        <v>243.0966504577413</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="H40" t="n">
         <v>110.9943444312342</v>
       </c>
       <c r="I40" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="J40" t="n">
-        <v>196.086283195932</v>
+        <v>196.0862831959319</v>
       </c>
       <c r="K40" t="n">
-        <v>570.7410962095564</v>
+        <v>295.9826416384208</v>
       </c>
       <c r="L40" t="n">
-        <v>784.3508696688391</v>
+        <v>842.0254691003148</v>
       </c>
       <c r="M40" t="n">
-        <v>1378.616654582447</v>
+        <v>1436.291254013923</v>
       </c>
       <c r="N40" t="n">
-        <v>1952.452562721501</v>
+        <v>2010.127162152977</v>
       </c>
       <c r="O40" t="n">
-        <v>2073.985315543396</v>
+        <v>2131.659914974871</v>
       </c>
       <c r="P40" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152065</v>
       </c>
       <c r="R40" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S40" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T40" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.707545081349</v>
       </c>
       <c r="U40" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157542</v>
       </c>
       <c r="W40" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743834</v>
       </c>
       <c r="X40" t="n">
-        <v>966.9960592492091</v>
+        <v>1110.948729077246</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.5763885633173</v>
+        <v>883.5290583913543</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1405.869672751171</v>
+        <v>1145.127020440098</v>
       </c>
       <c r="C41" t="n">
-        <v>967.727199934594</v>
+        <v>1145.127020440098</v>
       </c>
       <c r="D41" t="n">
-        <v>967.727199934594</v>
+        <v>1145.127020440098</v>
       </c>
       <c r="E41" t="n">
-        <v>533.9524550928891</v>
+        <v>1145.127020440098</v>
       </c>
       <c r="F41" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G41" t="n">
-        <v>48.71677177089499</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H41" t="n">
         <v>48.71677177089499</v>
@@ -7414,49 +7414,49 @@
         <v>284.896478104198</v>
       </c>
       <c r="K41" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L41" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M41" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N41" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O41" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P41" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q41" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R41" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S41" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T41" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U41" t="n">
-        <v>2176.772746517691</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V41" t="n">
-        <v>1814.155796451517</v>
+        <v>2034.136604623343</v>
       </c>
       <c r="W41" t="n">
-        <v>1814.155796451517</v>
+        <v>1629.281150034377</v>
       </c>
       <c r="X41" t="n">
-        <v>1814.155796451517</v>
+        <v>1210.138686613687</v>
       </c>
       <c r="Y41" t="n">
-        <v>1405.869672751171</v>
+        <v>1145.127020440098</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>569.2217964201103</v>
       </c>
       <c r="M42" t="n">
-        <v>829.0852108505127</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N42" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O42" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P42" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q42" t="n">
-        <v>1666.603808841992</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R42" t="n">
         <v>1677.080359849152</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>691.710439672368</v>
+        <v>960.6130957094508</v>
       </c>
       <c r="C43" t="n">
-        <v>519.1487281555929</v>
+        <v>788.0513841926758</v>
       </c>
       <c r="D43" t="n">
-        <v>353.2707353571157</v>
+        <v>622.1733913941985</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4307609463526</v>
+        <v>452.4153876449357</v>
       </c>
       <c r="F43" t="n">
-        <v>213.4307609463526</v>
+        <v>275.7083336066918</v>
       </c>
       <c r="G43" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="H43" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I43" t="n">
         <v>48.71677177089499</v>
@@ -7572,16 +7572,16 @@
         <v>196.086283195932</v>
       </c>
       <c r="K43" t="n">
-        <v>570.7410962095564</v>
+        <v>295.9826416384208</v>
       </c>
       <c r="L43" t="n">
-        <v>1116.78392367145</v>
+        <v>842.0254691003148</v>
       </c>
       <c r="M43" t="n">
-        <v>1251.565841404145</v>
+        <v>976.8073868330093</v>
       </c>
       <c r="N43" t="n">
-        <v>1383.142946385555</v>
+        <v>1185.276419525378</v>
       </c>
       <c r="O43" t="n">
         <v>1726.478421573054</v>
@@ -7596,25 +7596,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S43" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T43" t="n">
-        <v>2193.70754508135</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="U43" t="n">
-        <v>1915.322396287112</v>
+        <v>2013.500769922474</v>
       </c>
       <c r="V43" t="n">
-        <v>1628.366888157543</v>
+        <v>1726.545261792905</v>
       </c>
       <c r="W43" t="n">
-        <v>1356.340483743835</v>
+        <v>1454.518857379196</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.948729077247</v>
+        <v>1209.127102712609</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.5290583913552</v>
+        <v>1152.431714428438</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2183.853277023207</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="C44" t="n">
-        <v>1745.71080420663</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="D44" t="n">
-        <v>1309.801019381075</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="E44" t="n">
-        <v>876.02627453937</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F44" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G44" t="n">
-        <v>48.716771770895</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H44" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I44" t="n">
-        <v>122.2071970529793</v>
+        <v>122.2071970529795</v>
       </c>
       <c r="J44" t="n">
-        <v>284.8964781041978</v>
+        <v>284.8964781041979</v>
       </c>
       <c r="K44" t="n">
-        <v>528.7255375544864</v>
+        <v>528.7255375544866</v>
       </c>
       <c r="L44" t="n">
         <v>831.2170466428696</v>
@@ -7660,16 +7660,16 @@
         <v>1167.797134377708</v>
       </c>
       <c r="N44" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O44" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P44" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q44" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R44" t="n">
         <v>2435.83858854475</v>
@@ -7678,22 +7678,22 @@
         <v>2435.83858854475</v>
       </c>
       <c r="T44" t="n">
-        <v>2435.83858854475</v>
+        <v>2224.332692934145</v>
       </c>
       <c r="U44" t="n">
-        <v>2435.83858854475</v>
+        <v>1965.266850907086</v>
       </c>
       <c r="V44" t="n">
-        <v>2435.83858854475</v>
+        <v>1602.649900840912</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.83858854475</v>
+        <v>1197.794446251946</v>
       </c>
       <c r="X44" t="n">
-        <v>2435.83858854475</v>
+        <v>1125.545714549652</v>
       </c>
       <c r="Y44" t="n">
-        <v>2435.83858854475</v>
+        <v>717.2595908493054</v>
       </c>
     </row>
     <row r="45">
@@ -7721,16 +7721,16 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H45" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I45" t="n">
-        <v>84.02796795020365</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J45" t="n">
         <v>180.9245892111574</v>
       </c>
       <c r="K45" t="n">
-        <v>346.5363484128907</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L45" t="n">
         <v>569.2217964201103</v>
@@ -7748,7 +7748,7 @@
         <v>1535.686986727012</v>
       </c>
       <c r="Q45" t="n">
-        <v>1666.603808841993</v>
+        <v>1666.603808841992</v>
       </c>
       <c r="R45" t="n">
         <v>1677.080359849152</v>
@@ -7788,22 +7788,22 @@
         <v>519.1487281555929</v>
       </c>
       <c r="D46" t="n">
-        <v>353.2707353571157</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E46" t="n">
-        <v>183.5127316078529</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F46" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G46" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H46" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I46" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J46" t="n">
         <v>196.086283195932</v>
@@ -7821,13 +7821,13 @@
         <v>1383.142946385555</v>
       </c>
       <c r="O46" t="n">
-        <v>1726.478421573055</v>
+        <v>1726.478421573054</v>
       </c>
       <c r="P46" t="n">
-        <v>2177.977581014357</v>
+        <v>2177.977581014356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R46" t="n">
         <v>2435.83858854475</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>140.8310015009745</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>224.043153904651</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>182.3522595481338</v>
+        <v>310.0232728004787</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>224.0431539046508</v>
+        <v>224.043153904651</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>224.0431539046508</v>
+        <v>224.043153904651</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>224.0431539046513</v>
+        <v>224.043153904651</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>224.0431539046509</v>
+        <v>224.0431539046513</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10515,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>224.0431539046504</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>224.043153904651</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>110.1604120959959</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>224.043153904651</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>86.64326036904015</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>111.6345206392484</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11229,10 +11229,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>77.66861384945332</v>
       </c>
       <c r="O43" t="n">
-        <v>224.043153904651</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>224.0431539046513</v>
+        <v>224.043153904651</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>407.8166252435386</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>65.20729505771777</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H11" t="n">
         <v>266.4097384417204</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.69418351668037</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.3908366544989</v>
@@ -23320,10 +23320,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.852851429344</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24.19702523765149</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6012973062951</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>33.59864753461369</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.69418351668037</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.98781007185175</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.47067836643934</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>36.49840883120591</v>
       </c>
       <c r="H16" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I16" t="n">
-        <v>61.65479693373586</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6012973062951</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>169.3808978405121</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.69418351668037</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4751836067882</v>
+        <v>45.70390871714167</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.054053355022475</v>
       </c>
       <c r="I19" t="n">
-        <v>61.65479693373586</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T19" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>238.1435256102108</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>273.4194636421818</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.69418351668037</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>220.0209099078488</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>8.17545755935698</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>61.65479693373586</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>36.39232458884229</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>177.9303639709025</v>
       </c>
       <c r="C23" t="n">
-        <v>265.029300206573</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U23" t="n">
         <v>256.4751836067882</v>
@@ -24268,7 +24268,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>41.49198325927304</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.79233909047176</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H25" t="n">
         <v>130.781282966242</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>216.40056185496</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>428.2764117337773</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.060478926955341</v>
       </c>
       <c r="D28" t="n">
-        <v>4.071568463102039</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>61.65479693373585</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133.1617639187119</v>
+        <v>371.907553743739</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4476524459058</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>184.0051263890304</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H31" t="n">
         <v>130.781282966242</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.47067836643872</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6012973062951</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>25.20848409900566</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>136.8554830299445</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H32" t="n">
         <v>266.4097384417204</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4751836067882</v>
@@ -24979,10 +24979,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>77.76583530316312</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>130.781282966242</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>41.49198325927295</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>23.14546099557776</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>153.7752102781039</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.49840883120594</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>41.49198325927389</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H37" t="n">
         <v>130.781282966242</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>32.8287592878724</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25408,7 +25408,7 @@
         <v>395.4476524459058</v>
       </c>
       <c r="H38" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>130.9514028076009</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>103.1467801930098</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>36.3923245888414</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>338.653081252016</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>339.8417129514893</v>
       </c>
     </row>
     <row r="42">
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>29.61884904511467</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I43" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>169.0170395777037</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.5711163737313</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.69418351668035</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T44" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>343.4247944012118</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.49198325927304</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>41.49198325927301</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.066849283703</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>313153.4247967255</v>
+        <v>313153.4247967256</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>313153.4247967254</v>
+        <v>313153.4247967255</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>313153.4247967254</v>
+        <v>313153.4247967255</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>313153.4247967254</v>
+        <v>313153.4247967255</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>313153.4247967255</v>
+        <v>313153.4247967256</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>313153.4247967255</v>
+        <v>313153.4247967254</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>313153.4247967255</v>
+        <v>313153.4247967254</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>313153.4247967255</v>
+        <v>313153.4247967254</v>
       </c>
     </row>
     <row r="15">
@@ -26319,25 +26319,25 @@
         <v>444876.9379563229</v>
       </c>
       <c r="D2" t="n">
-        <v>444876.9379563229</v>
+        <v>444876.9379563228</v>
       </c>
       <c r="E2" t="n">
-        <v>274047.3784561928</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="F2" t="n">
-        <v>274047.3784561928</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="G2" t="n">
-        <v>274047.3784561927</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="H2" t="n">
         <v>274047.3784561928</v>
       </c>
       <c r="I2" t="n">
-        <v>274047.3784561927</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="J2" t="n">
-        <v>274047.3784561927</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="K2" t="n">
         <v>274047.3784561928</v>
@@ -26346,7 +26346,7 @@
         <v>274047.3784561928</v>
       </c>
       <c r="M2" t="n">
-        <v>274047.3784561929</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="N2" t="n">
         <v>274047.3784561928</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>568764.8628797383</v>
+        <v>568764.8628797384</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>151755.1799049264</v>
+        <v>151755.1799049265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>23464.92812635294</v>
@@ -26441,25 +26441,25 @@
         <v>23464.92812635294</v>
       </c>
       <c r="J4" t="n">
+        <v>23464.92812635294</v>
+      </c>
+      <c r="K4" t="n">
         <v>23464.92812635295</v>
       </c>
-      <c r="K4" t="n">
-        <v>23464.92812635294</v>
-      </c>
       <c r="L4" t="n">
-        <v>23464.92812635294</v>
+        <v>23464.92812635293</v>
       </c>
       <c r="M4" t="n">
-        <v>23464.92812635295</v>
+        <v>23464.92812635293</v>
       </c>
       <c r="N4" t="n">
-        <v>23464.92812635294</v>
+        <v>23464.92812635293</v>
       </c>
       <c r="O4" t="n">
         <v>23464.92812635294</v>
       </c>
       <c r="P4" t="n">
-        <v>23464.92812635295</v>
+        <v>23464.92812635294</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="F5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="G5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="H5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="I5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="J5" t="n">
         <v>47524.27844205807</v>
@@ -26499,19 +26499,19 @@
         <v>47524.27844205807</v>
       </c>
       <c r="L5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="M5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="N5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="O5" t="n">
         <v>47524.27844205807</v>
       </c>
       <c r="P5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205807</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="E6" t="n">
-        <v>-365706.6909919565</v>
+        <v>-366241.0375903408</v>
       </c>
       <c r="F6" t="n">
-        <v>203058.1718877818</v>
+        <v>202523.8252893976</v>
       </c>
       <c r="G6" t="n">
-        <v>203058.1718877817</v>
+        <v>202523.8252893976</v>
       </c>
       <c r="H6" t="n">
-        <v>203058.1718877818</v>
+        <v>202523.8252893975</v>
       </c>
       <c r="I6" t="n">
-        <v>203058.1718877817</v>
+        <v>202523.8252893976</v>
       </c>
       <c r="J6" t="n">
-        <v>203058.1718877817</v>
+        <v>202523.8252893975</v>
       </c>
       <c r="K6" t="n">
-        <v>203058.1718877818</v>
+        <v>202523.8252893975</v>
       </c>
       <c r="L6" t="n">
-        <v>203058.1718877818</v>
+        <v>202523.8252893975</v>
       </c>
       <c r="M6" t="n">
-        <v>51302.99198285546</v>
+        <v>50768.6453844711</v>
       </c>
       <c r="N6" t="n">
-        <v>203058.1718877818</v>
+        <v>202523.8252893975</v>
       </c>
       <c r="O6" t="n">
-        <v>203058.1718877818</v>
+        <v>202523.8252893975</v>
       </c>
       <c r="P6" t="n">
-        <v>203058.1718877818</v>
+        <v>202523.8252893975</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="F3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="G3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="H3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="I3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="J3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="K3" t="n">
         <v>481.629903494398</v>
       </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
         <v>481.629903494398</v>
       </c>
-      <c r="G3" t="n">
+      <c r="M3" t="n">
         <v>481.629903494398</v>
       </c>
-      <c r="H3" t="n">
+      <c r="N3" t="n">
         <v>481.629903494398</v>
-      </c>
-      <c r="I3" t="n">
-        <v>481.629903494398</v>
-      </c>
-      <c r="J3" t="n">
-        <v>481.629903494398</v>
-      </c>
-      <c r="K3" t="n">
-        <v>481.6299034943981</v>
-      </c>
-      <c r="L3" t="n">
-        <v>481.6299034943981</v>
-      </c>
-      <c r="M3" t="n">
-        <v>481.6299034943981</v>
-      </c>
-      <c r="N3" t="n">
-        <v>481.6299034943981</v>
       </c>
       <c r="O3" t="n">
         <v>481.6299034943981</v>
       </c>
       <c r="P3" t="n">
-        <v>481.6299034943982</v>
+        <v>481.6299034943981</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="F4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="G4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="H4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="I4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="J4" t="n">
         <v>608.9596471361874</v>
@@ -26819,19 +26819,19 @@
         <v>608.9596471361874</v>
       </c>
       <c r="L4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361872</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="N4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361872</v>
       </c>
       <c r="O4" t="n">
         <v>608.9596471361874</v>
       </c>
       <c r="P4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361874</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481.629903494398</v>
+        <v>481.6299034943981</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>19.82911456949548</v>
       </c>
       <c r="I11" t="n">
-        <v>74.64537428931772</v>
+        <v>74.64537428931773</v>
       </c>
       <c r="J11" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K11" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L11" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M11" t="n">
         <v>339.9798866008471</v>
       </c>
       <c r="N11" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O11" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P11" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q11" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R11" t="n">
         <v>121.6248620115778</v>
       </c>
       <c r="S11" t="n">
-        <v>44.12117156132099</v>
+        <v>44.121171561321</v>
       </c>
       <c r="T11" t="n">
-        <v>8.475718201192871</v>
+        <v>8.475718201192873</v>
       </c>
       <c r="U11" t="n">
         <v>0.1548960493650324</v>
@@ -31837,43 +31837,43 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66787492859457</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>97.87537501106442</v>
+        <v>79.80531418618924</v>
       </c>
       <c r="K12" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L12" t="n">
-        <v>224.9347959668884</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M12" t="n">
-        <v>208.7503616509774</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N12" t="n">
         <v>269.4355815784369</v>
       </c>
       <c r="O12" t="n">
-        <v>246.4809186307604</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P12" t="n">
         <v>197.8226673428217</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.2392142575562</v>
+        <v>132.2392142575563</v>
       </c>
       <c r="R12" t="n">
-        <v>64.32031050817642</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S12" t="n">
-        <v>19.24247774810164</v>
+        <v>19.24247774810165</v>
       </c>
       <c r="T12" t="n">
-        <v>4.175640389729732</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0681551750227922</v>
+        <v>0.06815517502279221</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8685129407276028</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H13" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I13" t="n">
-        <v>26.11855279933555</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J13" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K13" t="n">
         <v>100.9054125681706</v>
@@ -31928,10 +31928,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M13" t="n">
-        <v>136.1433512451459</v>
+        <v>136.143351245146</v>
       </c>
       <c r="N13" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O13" t="n">
         <v>122.7603563857525</v>
@@ -31940,19 +31940,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.72611542765409</v>
+        <v>72.72611542765411</v>
       </c>
       <c r="R13" t="n">
-        <v>39.05150004398838</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S13" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T13" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>19.82911456949548</v>
       </c>
       <c r="I14" t="n">
-        <v>74.64537428931772</v>
+        <v>74.64537428931773</v>
       </c>
       <c r="J14" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K14" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L14" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M14" t="n">
         <v>339.9798866008471</v>
       </c>
       <c r="N14" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O14" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P14" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R14" t="n">
         <v>121.6248620115778</v>
       </c>
       <c r="S14" t="n">
-        <v>44.12117156132099</v>
+        <v>44.121171561321</v>
       </c>
       <c r="T14" t="n">
-        <v>8.475718201192871</v>
+        <v>8.475718201192873</v>
       </c>
       <c r="U14" t="n">
         <v>0.1548960493650324</v>
@@ -32074,16 +32074,16 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J15" t="n">
-        <v>79.80531418618955</v>
+        <v>44.13743925759465</v>
       </c>
       <c r="K15" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L15" t="n">
-        <v>224.9347959668884</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M15" t="n">
         <v>262.4882974044469</v>
@@ -32092,25 +32092,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O15" t="n">
-        <v>246.4809186307604</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P15" t="n">
         <v>197.8226673428217</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.2392142575562</v>
+        <v>132.2392142575563</v>
       </c>
       <c r="R15" t="n">
-        <v>64.32031050817642</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S15" t="n">
-        <v>19.24247774810164</v>
+        <v>19.24247774810165</v>
       </c>
       <c r="T15" t="n">
-        <v>4.175640389729732</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0681551750227922</v>
+        <v>0.06815517502279221</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8685129407276028</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H16" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I16" t="n">
-        <v>26.11855279933555</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J16" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K16" t="n">
         <v>100.9054125681706</v>
@@ -32165,10 +32165,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M16" t="n">
-        <v>136.1433512451459</v>
+        <v>136.143351245146</v>
       </c>
       <c r="N16" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O16" t="n">
         <v>122.7603563857525</v>
@@ -32177,19 +32177,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.72611542765409</v>
+        <v>72.72611542765411</v>
       </c>
       <c r="R16" t="n">
-        <v>39.05150004398838</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S16" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T16" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>19.82911456949548</v>
       </c>
       <c r="I17" t="n">
-        <v>74.64537428931772</v>
+        <v>74.64537428931773</v>
       </c>
       <c r="J17" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K17" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L17" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M17" t="n">
         <v>339.9798866008471</v>
       </c>
       <c r="N17" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O17" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P17" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q17" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R17" t="n">
         <v>121.6248620115778</v>
       </c>
       <c r="S17" t="n">
-        <v>44.12117156132099</v>
+        <v>44.121171561321</v>
       </c>
       <c r="T17" t="n">
-        <v>8.475718201192871</v>
+        <v>8.475718201192873</v>
       </c>
       <c r="U17" t="n">
         <v>0.1548960493650324</v>
@@ -32314,13 +32314,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>79.80531418618955</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K18" t="n">
-        <v>167.284605254276</v>
+        <v>149.2145444294008</v>
       </c>
       <c r="L18" t="n">
-        <v>224.9347959668884</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M18" t="n">
         <v>262.4882974044469</v>
@@ -32329,25 +32329,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O18" t="n">
-        <v>246.4809186307604</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P18" t="n">
         <v>197.8226673428217</v>
       </c>
       <c r="Q18" t="n">
-        <v>132.2392142575562</v>
+        <v>132.2392142575563</v>
       </c>
       <c r="R18" t="n">
-        <v>64.32031050817642</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S18" t="n">
-        <v>19.24247774810164</v>
+        <v>19.24247774810165</v>
       </c>
       <c r="T18" t="n">
-        <v>4.175640389729732</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0681551750227922</v>
+        <v>0.06815517502279221</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8685129407276028</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H19" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I19" t="n">
-        <v>26.11855279933555</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J19" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K19" t="n">
         <v>100.9054125681706</v>
@@ -32402,10 +32402,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M19" t="n">
-        <v>136.1433512451459</v>
+        <v>136.143351245146</v>
       </c>
       <c r="N19" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O19" t="n">
         <v>122.7603563857525</v>
@@ -32414,19 +32414,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.72611542765409</v>
+        <v>72.72611542765411</v>
       </c>
       <c r="R19" t="n">
-        <v>39.05150004398838</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S19" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T19" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>19.82911456949548</v>
       </c>
       <c r="I20" t="n">
-        <v>74.64537428931772</v>
+        <v>74.64537428931773</v>
       </c>
       <c r="J20" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L20" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M20" t="n">
         <v>339.9798866008471</v>
       </c>
       <c r="N20" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O20" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P20" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R20" t="n">
         <v>121.6248620115778</v>
       </c>
       <c r="S20" t="n">
-        <v>44.12117156132099</v>
+        <v>44.121171561321</v>
       </c>
       <c r="T20" t="n">
-        <v>8.475718201192871</v>
+        <v>8.475718201192873</v>
       </c>
       <c r="U20" t="n">
         <v>0.1548960493650324</v>
@@ -32548,16 +32548,16 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I21" t="n">
-        <v>35.66787492859457</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J21" t="n">
-        <v>97.87537501106442</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K21" t="n">
-        <v>113.5466695008065</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L21" t="n">
-        <v>224.9347959668884</v>
+        <v>171.1968602134187</v>
       </c>
       <c r="M21" t="n">
         <v>262.4882974044469</v>
@@ -32566,25 +32566,25 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O21" t="n">
-        <v>246.4809186307604</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P21" t="n">
         <v>197.8226673428217</v>
       </c>
       <c r="Q21" t="n">
-        <v>132.2392142575562</v>
+        <v>132.2392142575563</v>
       </c>
       <c r="R21" t="n">
-        <v>64.32031050817642</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S21" t="n">
-        <v>19.24247774810164</v>
+        <v>19.24247774810165</v>
       </c>
       <c r="T21" t="n">
-        <v>4.175640389729732</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0681551750227922</v>
+        <v>0.06815517502279221</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8685129407276028</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H22" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I22" t="n">
-        <v>26.11855279933555</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J22" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K22" t="n">
         <v>100.9054125681706</v>
@@ -32639,10 +32639,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M22" t="n">
-        <v>136.1433512451459</v>
+        <v>136.143351245146</v>
       </c>
       <c r="N22" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O22" t="n">
         <v>122.7603563857525</v>
@@ -32651,19 +32651,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.72611542765409</v>
+        <v>72.72611542765411</v>
       </c>
       <c r="R22" t="n">
-        <v>39.05150004398838</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S22" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T22" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,7 +32712,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K23" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L23" t="n">
         <v>305.5469788771547</v>
@@ -32721,16 +32721,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N23" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P23" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R23" t="n">
         <v>121.6248620115778</v>
@@ -32785,13 +32785,13 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J24" t="n">
-        <v>97.87537501106443</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K24" t="n">
-        <v>149.214544429401</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L24" t="n">
         <v>224.9347959668885</v>
@@ -32812,7 +32812,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R24" t="n">
-        <v>64.32031050817643</v>
+        <v>10.58237475470651</v>
       </c>
       <c r="S24" t="n">
         <v>19.24247774810165</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H25" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I25" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J25" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K25" t="n">
         <v>100.9054125681706</v>
@@ -32879,7 +32879,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N25" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O25" t="n">
         <v>122.7603563857525</v>
@@ -32891,16 +32891,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R25" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S25" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T25" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K26" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L26" t="n">
         <v>305.5469788771547</v>
@@ -32958,16 +32958,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N26" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P26" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R26" t="n">
         <v>121.6248620115778</v>
@@ -33025,7 +33025,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J27" t="n">
-        <v>44.13743925759488</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K27" t="n">
         <v>167.284605254276</v>
@@ -33040,7 +33040,7 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307605</v>
+        <v>192.7429828772906</v>
       </c>
       <c r="P27" t="n">
         <v>197.8226673428217</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H28" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I28" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J28" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K28" t="n">
         <v>100.9054125681706</v>
@@ -33116,7 +33116,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N28" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O28" t="n">
         <v>122.7603563857525</v>
@@ -33128,16 +33128,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R28" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S28" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T28" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,7 +33186,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K29" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L29" t="n">
         <v>305.5469788771547</v>
@@ -33195,16 +33195,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N29" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P29" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R29" t="n">
         <v>121.6248620115778</v>
@@ -33262,7 +33262,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106445</v>
+        <v>44.13743925759488</v>
       </c>
       <c r="K30" t="n">
         <v>167.284605254276</v>
@@ -33286,7 +33286,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
-        <v>10.58237475470651</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S30" t="n">
         <v>19.24247774810165</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H31" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I31" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J31" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K31" t="n">
         <v>100.9054125681706</v>
@@ -33353,7 +33353,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N31" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O31" t="n">
         <v>122.7603563857525</v>
@@ -33365,16 +33365,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R31" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S31" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T31" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L32" t="n">
         <v>305.5469788771547</v>
@@ -33432,16 +33432,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N32" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O32" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P32" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R32" t="n">
         <v>121.6248620115778</v>
@@ -33496,16 +33496,16 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J33" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2145444294008</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L33" t="n">
-        <v>224.9347959668885</v>
+        <v>171.196860213419</v>
       </c>
       <c r="M33" t="n">
         <v>262.4882974044469</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H34" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I34" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J34" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K34" t="n">
         <v>100.9054125681706</v>
@@ -33590,7 +33590,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N34" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O34" t="n">
         <v>122.7603563857525</v>
@@ -33602,16 +33602,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R34" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S34" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T34" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K35" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L35" t="n">
         <v>305.5469788771547</v>
@@ -33669,16 +33669,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N35" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P35" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R35" t="n">
         <v>121.6248620115778</v>
@@ -33733,10 +33733,10 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J36" t="n">
-        <v>79.80531418618924</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K36" t="n">
         <v>167.284605254276</v>
@@ -33760,7 +33760,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R36" t="n">
-        <v>64.32031050817643</v>
+        <v>10.58237475470696</v>
       </c>
       <c r="S36" t="n">
         <v>19.24247774810165</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H37" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I37" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J37" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K37" t="n">
         <v>100.9054125681706</v>
@@ -33827,7 +33827,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N37" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O37" t="n">
         <v>122.7603563857525</v>
@@ -33839,16 +33839,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R37" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S37" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T37" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L38" t="n">
         <v>305.5469788771547</v>
@@ -33906,16 +33906,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N38" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P38" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R38" t="n">
         <v>121.6248620115778</v>
@@ -33973,7 +33973,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J39" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K39" t="n">
         <v>167.284605254276</v>
@@ -33997,7 +33997,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R39" t="n">
-        <v>10.58237475470651</v>
+        <v>10.58237475470696</v>
       </c>
       <c r="S39" t="n">
         <v>19.24247774810165</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H40" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I40" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J40" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K40" t="n">
         <v>100.9054125681706</v>
@@ -34064,7 +34064,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N40" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O40" t="n">
         <v>122.7603563857525</v>
@@ -34076,16 +34076,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R40" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S40" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T40" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34219,7 +34219,7 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M42" t="n">
-        <v>262.4882974044469</v>
+        <v>208.7503616509771</v>
       </c>
       <c r="N42" t="n">
         <v>269.4355815784369</v>
@@ -34234,7 +34234,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R42" t="n">
-        <v>10.58237475470651</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S42" t="n">
         <v>19.24247774810165</v>
@@ -34359,25 +34359,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H44" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I44" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931773</v>
       </c>
       <c r="J44" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K44" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L44" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N44" t="n">
         <v>345.4811166040772</v>
@@ -34386,19 +34386,19 @@
         <v>326.2280217181579</v>
       </c>
       <c r="P44" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q44" t="n">
         <v>209.087884385852</v>
       </c>
       <c r="R44" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115784</v>
       </c>
       <c r="S44" t="n">
-        <v>44.12117156132101</v>
+        <v>44.121171561321</v>
       </c>
       <c r="T44" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192873</v>
       </c>
       <c r="U44" t="n">
         <v>0.1548960493650324</v>
@@ -34441,13 +34441,13 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H45" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I45" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J45" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K45" t="n">
         <v>167.284605254276</v>
@@ -34456,31 +34456,31 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M45" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N45" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O45" t="n">
-        <v>246.4809186307606</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P45" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q45" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R45" t="n">
-        <v>10.58237475470628</v>
+        <v>10.58237475470651</v>
       </c>
       <c r="S45" t="n">
         <v>19.24247774810165</v>
       </c>
       <c r="T45" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.06815517502279221</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8685129407276032</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H46" t="n">
-        <v>7.721869600287242</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I46" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J46" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K46" t="n">
         <v>100.9054125681706</v>
@@ -34544,10 +34544,10 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P46" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765411</v>
       </c>
       <c r="R46" t="n">
         <v>39.0515000439884</v>
@@ -34556,10 +34556,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T46" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>74.23275281018631</v>
+        <v>74.23275281018633</v>
       </c>
       <c r="J11" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K11" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L11" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M11" t="n">
         <v>339.9798866008471</v>
@@ -35427,13 +35427,13 @@
         <v>326.2280217181578</v>
       </c>
       <c r="P11" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q11" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R11" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115775</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66787492859457</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>97.87537501106443</v>
+        <v>79.80531418618924</v>
       </c>
       <c r="K12" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L12" t="n">
-        <v>224.9347959668884</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M12" t="n">
-        <v>208.7503616509774</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N12" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O12" t="n">
         <v>246.4809186307605</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.40386490944152</v>
+        <v>148.8580923485222</v>
       </c>
       <c r="K13" t="n">
-        <v>100.9054125681706</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L13" t="n">
-        <v>269.9551890706038</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M13" t="n">
-        <v>136.1433512451459</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N13" t="n">
-        <v>579.6322304434892</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O13" t="n">
-        <v>546.6686889370469</v>
+        <v>346.8035102904034</v>
       </c>
       <c r="P13" t="n">
         <v>456.0597570114162</v>
@@ -35591,7 +35591,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R13" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>74.23275281018631</v>
+        <v>74.23275281018633</v>
       </c>
       <c r="J14" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K14" t="n">
-        <v>246.2919792427155</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L14" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N14" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O14" t="n">
         <v>326.2280217181578</v>
@@ -35670,7 +35670,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R14" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115775</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J15" t="n">
-        <v>79.80531418618955</v>
+        <v>44.13743925759465</v>
       </c>
       <c r="K15" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L15" t="n">
-        <v>224.9347959668884</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M15" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N15" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O15" t="n">
         <v>246.4809186307605</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K16" t="n">
         <v>378.4392050642672</v>
       </c>
       <c r="L16" t="n">
-        <v>311.4764471177631</v>
+        <v>439.147460370108</v>
       </c>
       <c r="M16" t="n">
-        <v>600.2684696097045</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N16" t="n">
-        <v>132.9061666478885</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O16" t="n">
-        <v>122.7603563857524</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P16" t="n">
         <v>456.0597570114162</v>
@@ -35828,7 +35828,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R16" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>74.23275281018631</v>
+        <v>74.23275281018633</v>
       </c>
       <c r="J17" t="n">
-        <v>164.3326071224431</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K17" t="n">
-        <v>246.2919792427156</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L17" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M17" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N17" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O17" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P17" t="n">
         <v>278.4280689844175</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>79.80531418618955</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K18" t="n">
-        <v>167.284605254276</v>
+        <v>149.2145444294008</v>
       </c>
       <c r="L18" t="n">
-        <v>224.9347959668884</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M18" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N18" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O18" t="n">
         <v>246.4809186307605</v>
@@ -36053,10 +36053,10 @@
         <v>136.1433512451461</v>
       </c>
       <c r="N19" t="n">
-        <v>132.9061666478885</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O19" t="n">
-        <v>346.8035102904032</v>
+        <v>346.8035102904034</v>
       </c>
       <c r="P19" t="n">
         <v>456.0597570114162</v>
@@ -36065,7 +36065,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R19" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>74.23275281018631</v>
+        <v>74.23275281018633</v>
       </c>
       <c r="J20" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L20" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M20" t="n">
         <v>339.9798866008471</v>
@@ -36138,13 +36138,13 @@
         <v>326.2280217181578</v>
       </c>
       <c r="P20" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q20" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R20" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115775</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.66787492859457</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J21" t="n">
-        <v>97.87537501106443</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K21" t="n">
-        <v>113.5466695008065</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L21" t="n">
-        <v>224.9347959668884</v>
+        <v>171.1968602134187</v>
       </c>
       <c r="M21" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N21" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O21" t="n">
         <v>246.4809186307605</v>
@@ -36290,10 +36290,10 @@
         <v>136.1433512451461</v>
       </c>
       <c r="N22" t="n">
-        <v>132.9061666478885</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O22" t="n">
-        <v>346.8035102904032</v>
+        <v>346.8035102904034</v>
       </c>
       <c r="P22" t="n">
         <v>456.0597570114162</v>
@@ -36302,7 +36302,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R22" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J23" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K23" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L23" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771545</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N23" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P23" t="n">
         <v>278.4280689844175</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J24" t="n">
-        <v>97.87537501106442</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K24" t="n">
-        <v>149.214544429401</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L24" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M24" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N24" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O24" t="n">
         <v>246.4809186307605</v>
@@ -36460,7 +36460,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R24" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470651</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36527,10 +36527,10 @@
         <v>360.1865051497969</v>
       </c>
       <c r="N25" t="n">
-        <v>132.9061666478885</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O25" t="n">
-        <v>122.7603563857524</v>
+        <v>122.7603563857526</v>
       </c>
       <c r="P25" t="n">
         <v>456.0597570114162</v>
@@ -36539,7 +36539,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R25" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J26" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K26" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L26" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771545</v>
       </c>
       <c r="M26" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N26" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P26" t="n">
-        <v>278.428068984417</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q26" t="n">
         <v>209.0878843858518</v>
@@ -36673,7 +36673,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J27" t="n">
-        <v>44.13743925759488</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K27" t="n">
         <v>167.284605254276</v>
@@ -36682,13 +36682,13 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M27" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N27" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307605</v>
+        <v>192.7429828772906</v>
       </c>
       <c r="P27" t="n">
         <v>197.8226673428217</v>
@@ -36764,10 +36764,10 @@
         <v>136.1433512451461</v>
       </c>
       <c r="N28" t="n">
-        <v>132.9061666478885</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O28" t="n">
-        <v>346.8035102904037</v>
+        <v>346.8035102904034</v>
       </c>
       <c r="P28" t="n">
         <v>456.0597570114162</v>
@@ -36776,7 +36776,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R28" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J29" t="n">
-        <v>164.3326071224433</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K29" t="n">
         <v>246.2919792427157</v>
       </c>
       <c r="L29" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M29" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N29" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P29" t="n">
         <v>278.4280689844175</v>
@@ -36910,7 +36910,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106445</v>
+        <v>44.13743925759488</v>
       </c>
       <c r="K30" t="n">
         <v>167.284605254276</v>
@@ -36919,10 +36919,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M30" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N30" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O30" t="n">
         <v>246.4809186307605</v>
@@ -36934,7 +36934,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
-        <v>10.58237475470651</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37001,10 +37001,10 @@
         <v>136.1433512451461</v>
       </c>
       <c r="N31" t="n">
-        <v>132.9061666478888</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O31" t="n">
-        <v>346.8035102904034</v>
+        <v>346.8035102904037</v>
       </c>
       <c r="P31" t="n">
         <v>456.0597570114162</v>
@@ -37013,7 +37013,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R31" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L32" t="n">
         <v>305.5469788771547</v>
@@ -37086,7 +37086,7 @@
         <v>326.2280217181578</v>
       </c>
       <c r="P32" t="n">
-        <v>278.428068984417</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q32" t="n">
         <v>209.0878843858518</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J33" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2145444294008</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L33" t="n">
-        <v>224.9347959668885</v>
+        <v>171.196860213419</v>
       </c>
       <c r="M33" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N33" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O33" t="n">
         <v>246.4809186307605</v>
@@ -37235,13 +37235,13 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M34" t="n">
-        <v>136.1433512451461</v>
+        <v>360.1865051497964</v>
       </c>
       <c r="N34" t="n">
-        <v>132.9061666478888</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O34" t="n">
-        <v>346.8035102904034</v>
+        <v>122.7603563857524</v>
       </c>
       <c r="P34" t="n">
         <v>456.0597570114162</v>
@@ -37250,7 +37250,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R34" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J35" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224428</v>
       </c>
       <c r="K35" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427156</v>
       </c>
       <c r="L35" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M35" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N35" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P35" t="n">
-        <v>278.428068984417</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q35" t="n">
         <v>209.0878843858518</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J36" t="n">
-        <v>79.80531418618924</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K36" t="n">
         <v>167.284605254276</v>
@@ -37393,10 +37393,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M36" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N36" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O36" t="n">
         <v>246.4809186307605</v>
@@ -37408,7 +37408,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R36" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470696</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,28 +37466,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K37" t="n">
-        <v>378.4392050642672</v>
+        <v>211.0658246641665</v>
       </c>
       <c r="L37" t="n">
-        <v>551.5584115776708</v>
+        <v>129.1241875696293</v>
       </c>
       <c r="M37" t="n">
-        <v>136.1433512451461</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N37" t="n">
-        <v>132.9061666478888</v>
+        <v>579.6322304434891</v>
       </c>
       <c r="O37" t="n">
-        <v>346.8035102904034</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P37" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q37" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R37" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J38" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224428</v>
       </c>
       <c r="K38" t="n">
         <v>246.2919792427158</v>
@@ -37554,13 +37554,13 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N38" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181576</v>
       </c>
       <c r="P38" t="n">
-        <v>278.428068984417</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q38" t="n">
         <v>209.0878843858518</v>
@@ -37621,7 +37621,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J39" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K39" t="n">
         <v>167.284605254276</v>
@@ -37630,10 +37630,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M39" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N39" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O39" t="n">
         <v>246.4809186307605</v>
@@ -37645,7 +37645,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R39" t="n">
-        <v>10.58237475470651</v>
+        <v>10.58237475470696</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,28 +37703,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K40" t="n">
-        <v>378.4392050642672</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L40" t="n">
-        <v>215.7674479386694</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M40" t="n">
         <v>600.2684696097047</v>
       </c>
       <c r="N40" t="n">
-        <v>579.6322304434893</v>
+        <v>579.6322304434891</v>
       </c>
       <c r="O40" t="n">
         <v>122.7603563857524</v>
       </c>
       <c r="P40" t="n">
-        <v>105.0426923949094</v>
+        <v>216.6772130341578</v>
       </c>
       <c r="Q40" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R40" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>164.3326071224433</v>
       </c>
       <c r="K41" t="n">
-        <v>246.291979242716</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L41" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771545</v>
       </c>
       <c r="M41" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N41" t="n">
-        <v>345.4811166040774</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O41" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P41" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q41" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M42" t="n">
-        <v>262.4882974044469</v>
+        <v>208.7503616509771</v>
       </c>
       <c r="N42" t="n">
         <v>269.435581578437</v>
@@ -37882,7 +37882,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R42" t="n">
-        <v>10.58237475470651</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K43" t="n">
-        <v>378.4392050642672</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L43" t="n">
         <v>551.5584115776708</v>
       </c>
       <c r="M43" t="n">
-        <v>136.1433512451461</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N43" t="n">
-        <v>132.9061666478888</v>
+        <v>210.574780497342</v>
       </c>
       <c r="O43" t="n">
-        <v>346.8035102904034</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P43" t="n">
         <v>456.0597570114162</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.23275281018635</v>
+        <v>74.23275281018633</v>
       </c>
       <c r="J44" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K44" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L44" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N44" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O44" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P44" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q44" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R44" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115784</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.6678749285946</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J45" t="n">
         <v>97.87537501106445</v>
@@ -38113,13 +38113,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P45" t="n">
-        <v>197.8226673428219</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q45" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R45" t="n">
-        <v>10.58237475470628</v>
+        <v>10.58237475470651</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K46" t="n">
-        <v>378.4392050642671</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L46" t="n">
         <v>551.5584115776708</v>
@@ -38189,7 +38189,7 @@
         <v>132.9061666478888</v>
       </c>
       <c r="O46" t="n">
-        <v>346.8035102904039</v>
+        <v>346.8035102904034</v>
       </c>
       <c r="P46" t="n">
         <v>456.0597570114162</v>
@@ -38198,7 +38198,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R46" t="n">
-        <v>17.84785696230657</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
